--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -534,34 +534,34 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10858390781212</v>
+        <v>1.220327</v>
       </c>
       <c r="N2">
-        <v>1.10858390781212</v>
+        <v>3.660981</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>215.7797307806136</v>
+        <v>238.495081952203</v>
       </c>
       <c r="R2">
-        <v>215.7797307806136</v>
+        <v>2146.455737569827</v>
       </c>
       <c r="S2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="T2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,34 +596,34 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H3">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I3">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J3">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.10858390781212</v>
+        <v>1.220327</v>
       </c>
       <c r="N3">
-        <v>1.10858390781212</v>
+        <v>3.660981</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>88.42878411177649</v>
+        <v>97.41535176495533</v>
       </c>
       <c r="R3">
-        <v>88.42878411177649</v>
+        <v>876.7381658845979</v>
       </c>
       <c r="S3">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="T3">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,34 +658,34 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H4">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I4">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J4">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.10858390781212</v>
+        <v>1.220327</v>
       </c>
       <c r="N4">
-        <v>1.10858390781212</v>
+        <v>3.660981</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>179.8333333340281</v>
+        <v>198.3173636653903</v>
       </c>
       <c r="R4">
-        <v>179.8333333340281</v>
+        <v>1784.856272988513</v>
       </c>
       <c r="S4">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="T4">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,34 +720,34 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H5">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I5">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J5">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.10858390781212</v>
+        <v>1.220327</v>
       </c>
       <c r="N5">
-        <v>1.10858390781212</v>
+        <v>3.660981</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>175.8573109215436</v>
+        <v>194.9973220971827</v>
       </c>
       <c r="R5">
-        <v>175.8573109215436</v>
+        <v>1754.975898874644</v>
       </c>
       <c r="S5">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="T5">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,34 +782,34 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H6">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I6">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J6">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.10858390781212</v>
+        <v>1.220327</v>
       </c>
       <c r="N6">
-        <v>1.10858390781212</v>
+        <v>3.660981</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>33.38308622526749</v>
+        <v>41.17209848855732</v>
       </c>
       <c r="R6">
-        <v>33.38308622526749</v>
+        <v>370.548886397016</v>
       </c>
       <c r="S6">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="T6">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
     </row>
   </sheetData>
